--- a/дипломный проект.xlsx
+++ b/дипломный проект.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\kyrcbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525DDA20-3B47-47FF-AC94-2A62F40CA237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33714239-D065-4BD8-966B-F35199BBC7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{994C0DEA-BB46-42F1-9554-52EF460F9964}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{994C0DEA-BB46-42F1-9554-52EF460F9964}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEKLIST" sheetId="1" r:id="rId1"/>
@@ -1573,15 +1573,9 @@
     <t>в процессе тестирования приложения были проверены следующие модули : авторизация и чаты. Использовались функциональный и не функциональный виды тестирования             всего тест кейсов написано: 94</t>
   </si>
   <si>
-    <t xml:space="preserve">В процессе тестирования приложения было найдено 7 багов. Из них:  </t>
-  </si>
-  <si>
     <t>конечный вывод</t>
   </si>
   <si>
-    <t>При тестировании данного приложения количество и серьезность багов не превысило норму. Приложение готово к запуску в релиз</t>
-  </si>
-  <si>
     <t>severity</t>
   </si>
   <si>
@@ -2015,6 +2009,12 @@
   </si>
   <si>
     <t>major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При тестировании данного приложения количество и серьезность багов не превысило норму. Приложение готово к запуску в релиз </t>
+  </si>
+  <si>
+    <t>В процессе тестирования приложения было найдено 7 багов. Из них:  2-major; 5-minor общее сотношение багов к тест кейсам состовляет 7.14%</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,8 +2056,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2065,11 +2071,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2087,6 +2108,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3436,7 +3460,7 @@
     </row>
     <row r="37" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>131</v>
@@ -3464,7 +3488,7 @@
     </row>
     <row r="38" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>131</v>
@@ -3492,7 +3516,7 @@
     </row>
     <row r="39" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>136</v>
@@ -3520,7 +3544,7 @@
     </row>
     <row r="40" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>140</v>
@@ -3548,7 +3572,7 @@
     </row>
     <row r="41" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>140</v>
@@ -3576,7 +3600,7 @@
     </row>
     <row r="42" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>144</v>
@@ -3604,7 +3628,7 @@
     </row>
     <row r="43" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>146</v>
@@ -3632,7 +3656,7 @@
     </row>
     <row r="44" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>150</v>
@@ -3660,7 +3684,7 @@
     </row>
     <row r="45" spans="1:16" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>153</v>
@@ -3688,7 +3712,7 @@
     </row>
     <row r="46" spans="1:16" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>156</v>
@@ -3716,7 +3740,7 @@
     </row>
     <row r="47" spans="1:16" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>159</v>
@@ -3744,7 +3768,7 @@
     </row>
     <row r="48" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>162</v>
@@ -3772,7 +3796,7 @@
     </row>
     <row r="49" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>165</v>
@@ -3800,7 +3824,7 @@
     </row>
     <row r="50" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>131</v>
@@ -3828,7 +3852,7 @@
     </row>
     <row r="51" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>170</v>
@@ -3856,7 +3880,7 @@
     </row>
     <row r="52" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>172</v>
@@ -3884,7 +3908,7 @@
     </row>
     <row r="53" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>176</v>
@@ -3912,7 +3936,7 @@
     </row>
     <row r="54" spans="1:16" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>179</v>
@@ -3968,7 +3992,7 @@
     </row>
     <row r="56" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>185</v>
@@ -3996,7 +4020,7 @@
     </row>
     <row r="57" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>188</v>
@@ -4024,7 +4048,7 @@
     </row>
     <row r="58" spans="1:16" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>191</v>
@@ -4052,7 +4076,7 @@
     </row>
     <row r="59" spans="1:16" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>194</v>
@@ -4080,7 +4104,7 @@
     </row>
     <row r="60" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>197</v>
@@ -4108,7 +4132,7 @@
     </row>
     <row r="61" spans="1:16" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>200</v>
@@ -4136,7 +4160,7 @@
     </row>
     <row r="62" spans="1:16" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>203</v>
@@ -4164,7 +4188,7 @@
     </row>
     <row r="63" spans="1:16" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>212</v>
@@ -4192,7 +4216,7 @@
     </row>
     <row r="64" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>206</v>
@@ -4220,7 +4244,7 @@
     </row>
     <row r="65" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>209</v>
@@ -4268,7 +4292,7 @@
     </row>
     <row r="67" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>218</v>
@@ -4296,7 +4320,7 @@
     </row>
     <row r="68" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>219</v>
@@ -4324,7 +4348,7 @@
     </row>
     <row r="69" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>222</v>
@@ -4352,7 +4376,7 @@
     </row>
     <row r="70" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>225</v>
@@ -4380,7 +4404,7 @@
     </row>
     <row r="71" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>228</v>
@@ -4408,7 +4432,7 @@
     </row>
     <row r="72" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>231</v>
@@ -4436,7 +4460,7 @@
     </row>
     <row r="73" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>238</v>
@@ -4464,7 +4488,7 @@
     </row>
     <row r="74" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>236</v>
@@ -4492,7 +4516,7 @@
     </row>
     <row r="75" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>239</v>
@@ -4520,7 +4544,7 @@
     </row>
     <row r="76" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>243</v>
@@ -4548,7 +4572,7 @@
     </row>
     <row r="77" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>246</v>
@@ -4576,7 +4600,7 @@
     </row>
     <row r="78" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>249</v>
@@ -4604,7 +4628,7 @@
     </row>
     <row r="79" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>252</v>
@@ -4632,7 +4656,7 @@
     </row>
     <row r="80" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>255</v>
@@ -4660,7 +4684,7 @@
     </row>
     <row r="81" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>258</v>
@@ -4688,7 +4712,7 @@
     </row>
     <row r="82" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>261</v>
@@ -4716,7 +4740,7 @@
     </row>
     <row r="83" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>264</v>
@@ -4744,7 +4768,7 @@
     </row>
     <row r="84" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>268</v>
@@ -4772,7 +4796,7 @@
     </row>
     <row r="85" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>271</v>
@@ -4800,7 +4824,7 @@
     </row>
     <row r="86" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>273</v>
@@ -4828,7 +4852,7 @@
     </row>
     <row r="87" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>271</v>
@@ -4856,7 +4880,7 @@
     </row>
     <row r="88" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>271</v>
@@ -4884,7 +4908,7 @@
     </row>
     <row r="89" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>283</v>
@@ -4912,7 +4936,7 @@
     </row>
     <row r="90" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>284</v>
@@ -4940,7 +4964,7 @@
     </row>
     <row r="91" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>286</v>
@@ -4968,7 +4992,7 @@
     </row>
     <row r="92" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>289</v>
@@ -4996,7 +5020,7 @@
     </row>
     <row r="93" spans="1:16" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>293</v>
@@ -5024,7 +5048,7 @@
     </row>
     <row r="94" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>296</v>
@@ -5052,7 +5076,7 @@
     </row>
     <row r="95" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>299</v>
@@ -5080,7 +5104,7 @@
     </row>
     <row r="96" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>302</v>
@@ -5108,7 +5132,7 @@
     </row>
     <row r="97" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>305</v>
@@ -5136,7 +5160,7 @@
     </row>
     <row r="98" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>305</v>
@@ -5164,7 +5188,7 @@
     </row>
     <row r="99" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>310</v>
@@ -5192,7 +5216,7 @@
     </row>
     <row r="100" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>313</v>
@@ -5220,7 +5244,7 @@
     </row>
     <row r="101" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>316</v>
@@ -5238,7 +5262,7 @@
     </row>
     <row r="102" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>319</v>
@@ -5256,7 +5280,7 @@
     </row>
     <row r="103" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>322</v>
@@ -5274,7 +5298,7 @@
     </row>
     <row r="104" spans="1:16" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>330</v>
@@ -5292,7 +5316,7 @@
     </row>
     <row r="105" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>329</v>
@@ -5310,7 +5334,7 @@
     </row>
     <row r="106" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>331</v>
@@ -5328,7 +5352,7 @@
     </row>
     <row r="107" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>334</v>
@@ -5346,7 +5370,7 @@
     </row>
     <row r="108" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>337</v>
@@ -5364,7 +5388,7 @@
     </row>
     <row r="109" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>340</v>
@@ -5382,7 +5406,7 @@
     </row>
     <row r="110" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>343</v>
@@ -5400,7 +5424,7 @@
     </row>
     <row r="111" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>346</v>
@@ -5418,7 +5442,7 @@
     </row>
     <row r="112" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>349</v>
@@ -5436,7 +5460,7 @@
     </row>
     <row r="113" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>352</v>
@@ -5750,7 +5774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916AA1F8-00BA-48EC-9D43-90EFCFD7A7C6}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -5819,7 +5843,7 @@
         <v>414</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>218</v>
@@ -5849,7 +5873,7 @@
         <v>416</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>219</v>
@@ -5879,7 +5903,7 @@
         <v>415</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>222</v>
@@ -5909,7 +5933,7 @@
         <v>417</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>225</v>
@@ -5939,7 +5963,7 @@
         <v>418</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>228</v>
@@ -5969,7 +5993,7 @@
         <v>419</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>231</v>
@@ -5999,7 +6023,7 @@
         <v>420</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>238</v>
@@ -6029,7 +6053,7 @@
         <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>236</v>
@@ -6059,7 +6083,7 @@
         <v>422</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>239</v>
@@ -6089,7 +6113,7 @@
         <v>423</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>243</v>
@@ -6119,7 +6143,7 @@
         <v>424</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>246</v>
@@ -6149,7 +6173,7 @@
         <v>424</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>249</v>
@@ -6179,7 +6203,7 @@
         <v>425</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>252</v>
@@ -6209,7 +6233,7 @@
         <v>426</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>255</v>
@@ -6239,7 +6263,7 @@
         <v>427</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>258</v>
@@ -6269,7 +6293,7 @@
         <v>428</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>261</v>
@@ -6299,7 +6323,7 @@
         <v>429</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>264</v>
@@ -6329,7 +6353,7 @@
         <v>430</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>268</v>
@@ -6359,7 +6383,7 @@
         <v>390</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>271</v>
@@ -6389,7 +6413,7 @@
         <v>389</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>273</v>
@@ -6419,7 +6443,7 @@
         <v>431</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>271</v>
@@ -6449,7 +6473,7 @@
         <v>432</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>271</v>
@@ -6479,7 +6503,7 @@
         <v>419</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>283</v>
@@ -6509,7 +6533,7 @@
         <v>430</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>284</v>
@@ -6537,7 +6561,7 @@
         <v>433</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>286</v>
@@ -6565,7 +6589,7 @@
         <v>434</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>289</v>
@@ -6593,7 +6617,7 @@
         <v>435</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>293</v>
@@ -6623,7 +6647,7 @@
         <v>436</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>296</v>
@@ -6653,7 +6677,7 @@
         <v>437</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>299</v>
@@ -6683,7 +6707,7 @@
         <v>438</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>302</v>
@@ -6713,7 +6737,7 @@
         <v>439</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>305</v>
@@ -6743,7 +6767,7 @@
         <v>440</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>305</v>
@@ -6773,7 +6797,7 @@
         <v>441</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>310</v>
@@ -6803,7 +6827,7 @@
         <v>442</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>313</v>
@@ -6833,7 +6857,7 @@
         <v>408</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>316</v>
@@ -6863,7 +6887,7 @@
         <v>443</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>319</v>
@@ -6893,7 +6917,7 @@
         <v>444</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>322</v>
@@ -6923,7 +6947,7 @@
         <v>445</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>330</v>
@@ -6953,7 +6977,7 @@
         <v>447</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>329</v>
@@ -6983,7 +7007,7 @@
         <v>446</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>331</v>
@@ -7013,7 +7037,7 @@
         <v>434</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>334</v>
@@ -7043,7 +7067,7 @@
         <v>448</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>337</v>
@@ -7073,7 +7097,7 @@
         <v>449</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>340</v>
@@ -7103,7 +7127,7 @@
         <v>450</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>343</v>
@@ -7133,7 +7157,7 @@
         <v>362</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>346</v>
@@ -7163,7 +7187,7 @@
         <v>363</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>349</v>
@@ -7193,7 +7217,7 @@
         <v>451</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>352</v>
@@ -7236,10 +7260,10 @@
     </row>
     <row r="51" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
@@ -7266,10 +7290,10 @@
     </row>
     <row r="52" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>9</v>
@@ -7296,10 +7320,10 @@
     </row>
     <row r="53" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>9</v>
@@ -7326,10 +7350,10 @@
     </row>
     <row r="54" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>9</v>
@@ -7356,10 +7380,10 @@
     </row>
     <row r="55" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
@@ -7386,10 +7410,10 @@
     </row>
     <row r="56" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>16</v>
@@ -7416,10 +7440,10 @@
     </row>
     <row r="57" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>18</v>
@@ -7446,10 +7470,10 @@
     </row>
     <row r="58" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>18</v>
@@ -7476,10 +7500,10 @@
     </row>
     <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>9</v>
@@ -7506,10 +7530,10 @@
     </row>
     <row r="60" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>9</v>
@@ -7536,10 +7560,10 @@
     </row>
     <row r="61" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
@@ -7566,10 +7590,10 @@
     </row>
     <row r="62" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>9</v>
@@ -7598,10 +7622,10 @@
     </row>
     <row r="63" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>32</v>
@@ -7628,10 +7652,10 @@
     </row>
     <row r="64" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>32</v>
@@ -7658,10 +7682,10 @@
     </row>
     <row r="65" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>32</v>
@@ -7688,10 +7712,10 @@
     </row>
     <row r="66" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>41</v>
@@ -7720,10 +7744,10 @@
     </row>
     <row r="67" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>41</v>
@@ -7752,10 +7776,10 @@
     </row>
     <row r="68" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>65</v>
@@ -7782,10 +7806,10 @@
     </row>
     <row r="69" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>21</v>
@@ -7814,13 +7838,13 @@
     </row>
     <row r="70" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>413</v>
@@ -7844,10 +7868,10 @@
     </row>
     <row r="71" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>41</v>
@@ -7874,10 +7898,10 @@
     </row>
     <row r="72" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>21</v>
@@ -7904,10 +7928,10 @@
     </row>
     <row r="73" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>9</v>
@@ -7934,10 +7958,10 @@
     </row>
     <row r="74" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>76</v>
@@ -7964,10 +7988,10 @@
     </row>
     <row r="75" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
@@ -7994,10 +8018,10 @@
     </row>
     <row r="76" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>9</v>
@@ -8026,10 +8050,10 @@
     </row>
     <row r="77" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>98</v>
@@ -8058,10 +8082,10 @@
     </row>
     <row r="78" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>103</v>
@@ -8088,10 +8112,10 @@
     </row>
     <row r="79" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>119</v>
@@ -8118,10 +8142,10 @@
     </row>
     <row r="80" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>109</v>
@@ -8148,10 +8172,10 @@
     </row>
     <row r="81" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>113</v>
@@ -8178,10 +8202,10 @@
     </row>
     <row r="82" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>118</v>
@@ -8208,10 +8232,10 @@
     </row>
     <row r="83" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>122</v>
@@ -8240,10 +8264,10 @@
     </row>
     <row r="84" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>126</v>
@@ -8288,10 +8312,10 @@
     </row>
     <row r="86" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -8318,10 +8342,10 @@
     </row>
     <row r="87" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>16</v>
@@ -8348,10 +8372,10 @@
     </row>
     <row r="88" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>18</v>
@@ -8378,10 +8402,10 @@
     </row>
     <row r="89" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>18</v>
@@ -8408,10 +8432,10 @@
     </row>
     <row r="90" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>32</v>
@@ -8438,10 +8462,10 @@
     </row>
     <row r="91" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>319</v>
@@ -8468,10 +8492,10 @@
     </row>
     <row r="92" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>322</v>
@@ -8498,10 +8522,10 @@
     </row>
     <row r="93" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>330</v>
@@ -8528,10 +8552,10 @@
     </row>
     <row r="94" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>329</v>
@@ -8558,10 +8582,10 @@
     </row>
     <row r="95" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>331</v>
@@ -8588,10 +8612,10 @@
     </row>
     <row r="96" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>334</v>
@@ -8618,10 +8642,10 @@
     </row>
     <row r="97" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>337</v>
@@ -8648,10 +8672,10 @@
     </row>
     <row r="98" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>346</v>
@@ -9427,8 +9451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED1FA28-9C9B-47EA-A7A8-3BBD7DF7C81F}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9454,13 +9478,13 @@
         <v>355</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>357</v>
@@ -9483,22 +9507,22 @@
     </row>
     <row r="2" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>465</v>
@@ -9516,22 +9540,22 @@
     </row>
     <row r="3" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>469</v>
@@ -9549,22 +9573,22 @@
     </row>
     <row r="4" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>471</v>
@@ -9582,22 +9606,22 @@
     </row>
     <row r="5" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>479</v>
@@ -9615,22 +9639,22 @@
     </row>
     <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>480</v>
@@ -9648,22 +9672,22 @@
     </row>
     <row r="7" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>486</v>
@@ -9681,22 +9705,22 @@
     </row>
     <row r="8" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>128</v>
@@ -9721,8 +9745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1F408-2921-4F70-8EB1-DE2C93366F24}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9759,16 +9783,16 @@
       <c r="A4" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>511</v>
+      <c r="B4" s="7" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>513</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
